--- a/samples/days.xlsx
+++ b/samples/days.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8658A2-5DC1-460F-8F56-7B156DFC046C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0520645-A9A1-4C0D-9D73-6C780F9914FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +66,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -114,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,10 +157,19 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -435,11 +452,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158:B277"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1702,7 +1721,7 @@
       <c r="A158" s="3">
         <v>45292</v>
       </c>
-      <c r="B158" s="9">
+      <c r="B158" s="13">
         <v>17</v>
       </c>
     </row>
@@ -1710,7 +1729,7 @@
       <c r="A159" s="3">
         <v>45323</v>
       </c>
-      <c r="B159" s="9">
+      <c r="B159" s="13">
         <v>20</v>
       </c>
     </row>
@@ -1718,7 +1737,7 @@
       <c r="A160" s="3">
         <v>45352</v>
       </c>
-      <c r="B160" s="9">
+      <c r="B160" s="13">
         <v>20</v>
       </c>
     </row>
@@ -1726,7 +1745,7 @@
       <c r="A161" s="3">
         <v>45383</v>
       </c>
-      <c r="B161" s="12">
+      <c r="B161" s="14">
         <v>21</v>
       </c>
     </row>
@@ -1734,7 +1753,7 @@
       <c r="A162" s="3">
         <v>45413</v>
       </c>
-      <c r="B162" s="9">
+      <c r="B162" s="13">
         <v>20</v>
       </c>
     </row>
@@ -1742,7 +1761,7 @@
       <c r="A163" s="3">
         <v>45444</v>
       </c>
-      <c r="B163" s="9">
+      <c r="B163" s="13">
         <v>19</v>
       </c>
     </row>
@@ -1750,7 +1769,7 @@
       <c r="A164" s="3">
         <v>45474</v>
       </c>
-      <c r="B164" s="9">
+      <c r="B164" s="13">
         <v>23</v>
       </c>
     </row>
@@ -1758,7 +1777,7 @@
       <c r="A165" s="3">
         <v>45505</v>
       </c>
-      <c r="B165" s="9">
+      <c r="B165" s="13">
         <v>22</v>
       </c>
     </row>
@@ -1766,7 +1785,7 @@
       <c r="A166" s="3">
         <v>45536</v>
       </c>
-      <c r="B166" s="9">
+      <c r="B166" s="13">
         <v>21</v>
       </c>
     </row>
@@ -1774,7 +1793,7 @@
       <c r="A167" s="3">
         <v>45566</v>
       </c>
-      <c r="B167" s="9">
+      <c r="B167" s="13">
         <v>23</v>
       </c>
     </row>
@@ -1782,7 +1801,7 @@
       <c r="A168" s="3">
         <v>45597</v>
       </c>
-      <c r="B168" s="12">
+      <c r="B168" s="14">
         <v>21</v>
       </c>
     </row>
@@ -1790,7 +1809,7 @@
       <c r="A169" s="4">
         <v>45627</v>
       </c>
-      <c r="B169" s="11">
+      <c r="B169" s="15">
         <v>21</v>
       </c>
     </row>
@@ -1798,7 +1817,7 @@
       <c r="A170" s="3">
         <v>45658</v>
       </c>
-      <c r="B170" s="9">
+      <c r="B170" s="13">
         <v>17</v>
       </c>
     </row>
@@ -1806,7 +1825,7 @@
       <c r="A171" s="3">
         <v>45689</v>
       </c>
-      <c r="B171" s="9">
+      <c r="B171" s="13">
         <v>20</v>
       </c>
     </row>
@@ -1814,15 +1833,15 @@
       <c r="A172" s="3">
         <v>45717</v>
       </c>
-      <c r="B172" s="9">
-        <v>20</v>
+      <c r="B172" s="14">
+        <v>21</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>45748</v>
       </c>
-      <c r="B173" s="9">
+      <c r="B173" s="13">
         <v>22</v>
       </c>
     </row>
@@ -1830,15 +1849,15 @@
       <c r="A174" s="3">
         <v>45778</v>
       </c>
-      <c r="B174" s="9">
-        <v>19</v>
+      <c r="B174" s="14">
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>45809</v>
       </c>
-      <c r="B175" s="9">
+      <c r="B175" s="13">
         <v>19</v>
       </c>
     </row>
@@ -1846,7 +1865,7 @@
       <c r="A176" s="3">
         <v>45839</v>
       </c>
-      <c r="B176" s="9">
+      <c r="B176" s="13">
         <v>23</v>
       </c>
     </row>
@@ -1854,7 +1873,7 @@
       <c r="A177" s="3">
         <v>45870</v>
       </c>
-      <c r="B177" s="9">
+      <c r="B177" s="13">
         <v>21</v>
       </c>
     </row>
@@ -1862,7 +1881,7 @@
       <c r="A178" s="3">
         <v>45901</v>
       </c>
-      <c r="B178" s="9">
+      <c r="B178" s="13">
         <v>22</v>
       </c>
     </row>
@@ -1870,7 +1889,7 @@
       <c r="A179" s="3">
         <v>45931</v>
       </c>
-      <c r="B179" s="9">
+      <c r="B179" s="13">
         <v>23</v>
       </c>
     </row>
@@ -1878,23 +1897,23 @@
       <c r="A180" s="3">
         <v>45962</v>
       </c>
-      <c r="B180" s="9">
-        <v>18</v>
+      <c r="B180" s="14">
+        <v>19</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>45992</v>
       </c>
-      <c r="B181" s="9">
-        <v>23</v>
+      <c r="B181" s="16">
+        <v>22</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>46023</v>
       </c>
-      <c r="B182" s="9">
+      <c r="B182" s="13">
         <v>15</v>
       </c>
     </row>
@@ -1902,7 +1921,7 @@
       <c r="A183" s="3">
         <v>46054</v>
       </c>
-      <c r="B183" s="9">
+      <c r="B183" s="13">
         <v>19</v>
       </c>
     </row>
@@ -1910,7 +1929,7 @@
       <c r="A184" s="3">
         <v>46082</v>
       </c>
-      <c r="B184" s="9">
+      <c r="B184" s="13">
         <v>21</v>
       </c>
     </row>
@@ -1918,7 +1937,7 @@
       <c r="A185" s="3">
         <v>46113</v>
       </c>
-      <c r="B185" s="9">
+      <c r="B185" s="13">
         <v>22</v>
       </c>
     </row>
@@ -1926,7 +1945,7 @@
       <c r="A186" s="3">
         <v>46143</v>
       </c>
-      <c r="B186" s="9">
+      <c r="B186" s="13">
         <v>18</v>
       </c>
     </row>
@@ -1934,7 +1953,7 @@
       <c r="A187" s="3">
         <v>46174</v>
       </c>
-      <c r="B187" s="9">
+      <c r="B187" s="13">
         <v>21</v>
       </c>
     </row>
@@ -1942,7 +1961,7 @@
       <c r="A188" s="3">
         <v>46204</v>
       </c>
-      <c r="B188" s="9">
+      <c r="B188" s="13">
         <v>23</v>
       </c>
     </row>
@@ -1950,7 +1969,7 @@
       <c r="A189" s="3">
         <v>46235</v>
       </c>
-      <c r="B189" s="9">
+      <c r="B189" s="13">
         <v>21</v>
       </c>
     </row>
@@ -1958,7 +1977,7 @@
       <c r="A190" s="3">
         <v>46266</v>
       </c>
-      <c r="B190" s="9">
+      <c r="B190" s="13">
         <v>22</v>
       </c>
     </row>
@@ -1966,7 +1985,7 @@
       <c r="A191" s="3">
         <v>46296</v>
       </c>
-      <c r="B191" s="9">
+      <c r="B191" s="13">
         <v>22</v>
       </c>
     </row>
@@ -1974,7 +1993,7 @@
       <c r="A192" s="3">
         <v>46327</v>
       </c>
-      <c r="B192" s="9">
+      <c r="B192" s="13">
         <v>20</v>
       </c>
     </row>
@@ -1982,7 +2001,7 @@
       <c r="A193" s="3">
         <v>46357</v>
       </c>
-      <c r="B193" s="9">
+      <c r="B193" s="13">
         <v>23</v>
       </c>
     </row>
@@ -1990,7 +2009,7 @@
       <c r="A194" s="3">
         <v>46388</v>
       </c>
-      <c r="B194" s="9">
+      <c r="B194" s="13">
         <v>15</v>
       </c>
     </row>
@@ -1998,7 +2017,7 @@
       <c r="A195" s="3">
         <v>46419</v>
       </c>
-      <c r="B195" s="9">
+      <c r="B195" s="13">
         <v>19</v>
       </c>
     </row>
@@ -2006,7 +2025,7 @@
       <c r="A196" s="3">
         <v>46447</v>
       </c>
-      <c r="B196" s="9">
+      <c r="B196" s="13">
         <v>22</v>
       </c>
     </row>
@@ -2014,7 +2033,7 @@
       <c r="A197" s="3">
         <v>46478</v>
       </c>
-      <c r="B197" s="9">
+      <c r="B197" s="13">
         <v>22</v>
       </c>
     </row>
@@ -2022,7 +2041,7 @@
       <c r="A198" s="3">
         <v>46508</v>
       </c>
-      <c r="B198" s="9">
+      <c r="B198" s="13">
         <v>19</v>
       </c>
     </row>
@@ -2030,7 +2049,7 @@
       <c r="A199" s="3">
         <v>46539</v>
       </c>
-      <c r="B199" s="9">
+      <c r="B199" s="13">
         <v>21</v>
       </c>
     </row>
@@ -2038,7 +2057,7 @@
       <c r="A200" s="3">
         <v>46569</v>
       </c>
-      <c r="B200" s="9">
+      <c r="B200" s="13">
         <v>22</v>
       </c>
     </row>
@@ -2046,7 +2065,7 @@
       <c r="A201" s="3">
         <v>46600</v>
       </c>
-      <c r="B201" s="9">
+      <c r="B201" s="13">
         <v>22</v>
       </c>
     </row>
@@ -2054,7 +2073,7 @@
       <c r="A202" s="3">
         <v>46631</v>
       </c>
-      <c r="B202" s="9">
+      <c r="B202" s="13">
         <v>22</v>
       </c>
     </row>
@@ -2062,7 +2081,7 @@
       <c r="A203" s="3">
         <v>46661</v>
       </c>
-      <c r="B203" s="9">
+      <c r="B203" s="13">
         <v>21</v>
       </c>
     </row>
@@ -2070,7 +2089,7 @@
       <c r="A204" s="3">
         <v>46692</v>
       </c>
-      <c r="B204" s="9">
+      <c r="B204" s="13">
         <v>20</v>
       </c>
     </row>
@@ -2078,7 +2097,7 @@
       <c r="A205" s="3">
         <v>46722</v>
       </c>
-      <c r="B205" s="9">
+      <c r="B205" s="13">
         <v>22</v>
       </c>
     </row>
@@ -2086,7 +2105,7 @@
       <c r="A206" s="3">
         <v>46753</v>
       </c>
-      <c r="B206" s="9">
+      <c r="B206" s="13">
         <v>16</v>
       </c>
     </row>
@@ -2094,7 +2113,7 @@
       <c r="A207" s="3">
         <v>46784</v>
       </c>
-      <c r="B207" s="9">
+      <c r="B207" s="13">
         <v>20</v>
       </c>
     </row>
@@ -2102,7 +2121,7 @@
       <c r="A208" s="3">
         <v>46813</v>
       </c>
-      <c r="B208" s="9">
+      <c r="B208" s="13">
         <v>22</v>
       </c>
     </row>
@@ -2110,7 +2129,7 @@
       <c r="A209" s="3">
         <v>46844</v>
       </c>
-      <c r="B209" s="9">
+      <c r="B209" s="13">
         <v>20</v>
       </c>
     </row>
@@ -2118,7 +2137,7 @@
       <c r="A210" s="3">
         <v>46874</v>
       </c>
-      <c r="B210" s="9">
+      <c r="B210" s="13">
         <v>20</v>
       </c>
     </row>
@@ -2126,7 +2145,7 @@
       <c r="A211" s="3">
         <v>46905</v>
       </c>
-      <c r="B211" s="9">
+      <c r="B211" s="13">
         <v>21</v>
       </c>
     </row>
@@ -2134,7 +2153,7 @@
       <c r="A212" s="3">
         <v>46935</v>
       </c>
-      <c r="B212" s="9">
+      <c r="B212" s="13">
         <v>21</v>
       </c>
     </row>
@@ -2142,7 +2161,7 @@
       <c r="A213" s="3">
         <v>46966</v>
       </c>
-      <c r="B213" s="9">
+      <c r="B213" s="13">
         <v>23</v>
       </c>
     </row>
@@ -2150,7 +2169,7 @@
       <c r="A214" s="3">
         <v>46997</v>
       </c>
-      <c r="B214" s="9">
+      <c r="B214" s="13">
         <v>21</v>
       </c>
     </row>
@@ -2158,7 +2177,7 @@
       <c r="A215" s="3">
         <v>47027</v>
       </c>
-      <c r="B215" s="9">
+      <c r="B215" s="13">
         <v>22</v>
       </c>
     </row>
@@ -2166,7 +2185,7 @@
       <c r="A216" s="3">
         <v>47058</v>
       </c>
-      <c r="B216" s="9">
+      <c r="B216" s="13">
         <v>21</v>
       </c>
     </row>
@@ -2174,7 +2193,7 @@
       <c r="A217" s="3">
         <v>47088</v>
       </c>
-      <c r="B217" s="9">
+      <c r="B217" s="13">
         <v>21</v>
       </c>
     </row>
@@ -2182,7 +2201,7 @@
       <c r="A218" s="3">
         <v>47119</v>
       </c>
-      <c r="B218" s="9">
+      <c r="B218" s="13">
         <v>17</v>
       </c>
     </row>
@@ -2190,7 +2209,7 @@
       <c r="A219" s="3">
         <v>47150</v>
       </c>
-      <c r="B219" s="9">
+      <c r="B219" s="13">
         <v>19</v>
       </c>
     </row>
@@ -2198,7 +2217,7 @@
       <c r="A220" s="3">
         <v>47178</v>
       </c>
-      <c r="B220" s="9">
+      <c r="B220" s="13">
         <v>20</v>
       </c>
     </row>
@@ -2206,7 +2225,7 @@
       <c r="A221" s="3">
         <v>47209</v>
       </c>
-      <c r="B221" s="9">
+      <c r="B221" s="13">
         <v>21</v>
       </c>
     </row>
@@ -2214,7 +2233,7 @@
       <c r="A222" s="3">
         <v>47239</v>
       </c>
-      <c r="B222" s="9">
+      <c r="B222" s="13">
         <v>20</v>
       </c>
     </row>
@@ -2222,7 +2241,7 @@
       <c r="A223" s="3">
         <v>47270</v>
       </c>
-      <c r="B223" s="9">
+      <c r="B223" s="13">
         <v>20</v>
       </c>
     </row>
@@ -2230,7 +2249,7 @@
       <c r="A224" s="3">
         <v>47300</v>
       </c>
-      <c r="B224" s="9">
+      <c r="B224" s="13">
         <v>22</v>
       </c>
     </row>
@@ -2238,7 +2257,7 @@
       <c r="A225" s="3">
         <v>47331</v>
       </c>
-      <c r="B225" s="9">
+      <c r="B225" s="13">
         <v>23</v>
       </c>
     </row>
@@ -2246,7 +2265,7 @@
       <c r="A226" s="3">
         <v>47362</v>
       </c>
-      <c r="B226" s="9">
+      <c r="B226" s="13">
         <v>20</v>
       </c>
     </row>
@@ -2254,7 +2273,7 @@
       <c r="A227" s="3">
         <v>47392</v>
       </c>
-      <c r="B227" s="9">
+      <c r="B227" s="13">
         <v>23</v>
       </c>
     </row>
@@ -2262,7 +2281,7 @@
       <c r="A228" s="3">
         <v>47423</v>
       </c>
-      <c r="B228" s="9">
+      <c r="B228" s="13">
         <v>21</v>
       </c>
     </row>
@@ -2270,7 +2289,7 @@
       <c r="A229" s="3">
         <v>47453</v>
       </c>
-      <c r="B229" s="9">
+      <c r="B229" s="13">
         <v>21</v>
       </c>
     </row>
@@ -2278,7 +2297,7 @@
       <c r="A230" s="3">
         <v>47484</v>
       </c>
-      <c r="B230" s="9">
+      <c r="B230" s="13">
         <v>17</v>
       </c>
     </row>
@@ -2286,7 +2305,7 @@
       <c r="A231" s="3">
         <v>47515</v>
       </c>
-      <c r="B231" s="9">
+      <c r="B231" s="13">
         <v>20</v>
       </c>
     </row>
@@ -2294,7 +2313,7 @@
       <c r="A232" s="3">
         <v>47543</v>
       </c>
-      <c r="B232" s="9">
+      <c r="B232" s="13">
         <v>20</v>
       </c>
     </row>
@@ -2302,7 +2321,7 @@
       <c r="A233" s="3">
         <v>47574</v>
       </c>
-      <c r="B233" s="9">
+      <c r="B233" s="13">
         <v>22</v>
       </c>
     </row>
@@ -2310,7 +2329,7 @@
       <c r="A234" s="3">
         <v>47604</v>
       </c>
-      <c r="B234" s="9">
+      <c r="B234" s="13">
         <v>18</v>
       </c>
     </row>
@@ -2318,7 +2337,7 @@
       <c r="A235" s="3">
         <v>47635</v>
       </c>
-      <c r="B235" s="9">
+      <c r="B235" s="13">
         <v>19</v>
       </c>
     </row>
@@ -2326,7 +2345,7 @@
       <c r="A236" s="3">
         <v>47665</v>
       </c>
-      <c r="B236" s="9">
+      <c r="B236" s="13">
         <v>23</v>
       </c>
     </row>
@@ -2334,7 +2353,7 @@
       <c r="A237" s="3">
         <v>47696</v>
       </c>
-      <c r="B237" s="9">
+      <c r="B237" s="13">
         <v>22</v>
       </c>
     </row>
@@ -2342,7 +2361,7 @@
       <c r="A238" s="3">
         <v>47727</v>
       </c>
-      <c r="B238" s="9">
+      <c r="B238" s="13">
         <v>21</v>
       </c>
     </row>
@@ -2350,7 +2369,7 @@
       <c r="A239" s="3">
         <v>47757</v>
       </c>
-      <c r="B239" s="9">
+      <c r="B239" s="13">
         <v>23</v>
       </c>
     </row>
@@ -2358,7 +2377,7 @@
       <c r="A240" s="3">
         <v>47788</v>
       </c>
-      <c r="B240" s="9">
+      <c r="B240" s="13">
         <v>20</v>
       </c>
     </row>
@@ -2366,7 +2385,7 @@
       <c r="A241" s="3">
         <v>47818</v>
       </c>
-      <c r="B241" s="9">
+      <c r="B241" s="13">
         <v>22</v>
       </c>
     </row>
@@ -2374,7 +2393,7 @@
       <c r="A242" s="3">
         <v>47849</v>
       </c>
-      <c r="B242" s="9">
+      <c r="B242" s="13">
         <v>17</v>
       </c>
     </row>
@@ -2382,7 +2401,7 @@
       <c r="A243" s="3">
         <v>47880</v>
       </c>
-      <c r="B243" s="9">
+      <c r="B243" s="13">
         <v>20</v>
       </c>
     </row>
@@ -2390,7 +2409,7 @@
       <c r="A244" s="3">
         <v>47908</v>
       </c>
-      <c r="B244" s="9">
+      <c r="B244" s="13">
         <v>20</v>
       </c>
     </row>
@@ -2398,7 +2417,7 @@
       <c r="A245" s="3">
         <v>47939</v>
       </c>
-      <c r="B245" s="9">
+      <c r="B245" s="13">
         <v>22</v>
       </c>
     </row>
@@ -2406,7 +2425,7 @@
       <c r="A246" s="3">
         <v>47969</v>
       </c>
-      <c r="B246" s="9">
+      <c r="B246" s="13">
         <v>19</v>
       </c>
     </row>
@@ -2414,7 +2433,7 @@
       <c r="A247" s="3">
         <v>48000</v>
       </c>
-      <c r="B247" s="9">
+      <c r="B247" s="13">
         <v>19</v>
       </c>
     </row>
@@ -2422,7 +2441,7 @@
       <c r="A248" s="3">
         <v>48030</v>
       </c>
-      <c r="B248" s="9">
+      <c r="B248" s="13">
         <v>23</v>
       </c>
     </row>
@@ -2430,7 +2449,7 @@
       <c r="A249" s="3">
         <v>48061</v>
       </c>
-      <c r="B249" s="9">
+      <c r="B249" s="13">
         <v>21</v>
       </c>
     </row>
@@ -2438,7 +2457,7 @@
       <c r="A250" s="3">
         <v>48092</v>
       </c>
-      <c r="B250" s="9">
+      <c r="B250" s="13">
         <v>22</v>
       </c>
     </row>
@@ -2446,7 +2465,7 @@
       <c r="A251" s="3">
         <v>48122</v>
       </c>
-      <c r="B251" s="9">
+      <c r="B251" s="13">
         <v>23</v>
       </c>
     </row>
@@ -2454,7 +2473,7 @@
       <c r="A252" s="3">
         <v>48153</v>
       </c>
-      <c r="B252" s="9">
+      <c r="B252" s="13">
         <v>18</v>
       </c>
     </row>
@@ -2462,7 +2481,7 @@
       <c r="A253" s="3">
         <v>48183</v>
       </c>
-      <c r="B253" s="9">
+      <c r="B253" s="13">
         <v>23</v>
       </c>
     </row>
@@ -2470,7 +2489,7 @@
       <c r="A254" s="3">
         <v>48214</v>
       </c>
-      <c r="B254" s="9">
+      <c r="B254" s="13">
         <v>15</v>
       </c>
     </row>
@@ -2478,7 +2497,7 @@
       <c r="A255" s="3">
         <v>48245</v>
       </c>
-      <c r="B255" s="9">
+      <c r="B255" s="13">
         <v>19</v>
       </c>
     </row>
@@ -2486,7 +2505,7 @@
       <c r="A256" s="3">
         <v>48274</v>
       </c>
-      <c r="B256" s="9">
+      <c r="B256" s="13">
         <v>22</v>
       </c>
     </row>
@@ -2494,7 +2513,7 @@
       <c r="A257" s="3">
         <v>48305</v>
       </c>
-      <c r="B257" s="9">
+      <c r="B257" s="13">
         <v>22</v>
       </c>
     </row>
@@ -2502,7 +2521,7 @@
       <c r="A258" s="3">
         <v>48335</v>
       </c>
-      <c r="B258" s="9">
+      <c r="B258" s="13">
         <v>19</v>
       </c>
     </row>
@@ -2510,7 +2529,7 @@
       <c r="A259" s="3">
         <v>48366</v>
       </c>
-      <c r="B259" s="9">
+      <c r="B259" s="13">
         <v>21</v>
       </c>
     </row>
@@ -2518,7 +2537,7 @@
       <c r="A260" s="3">
         <v>48396</v>
       </c>
-      <c r="B260" s="9">
+      <c r="B260" s="13">
         <v>22</v>
       </c>
     </row>
@@ -2526,7 +2545,7 @@
       <c r="A261" s="3">
         <v>48427</v>
       </c>
-      <c r="B261" s="9">
+      <c r="B261" s="13">
         <v>22</v>
       </c>
     </row>
@@ -2534,7 +2553,7 @@
       <c r="A262" s="3">
         <v>48458</v>
       </c>
-      <c r="B262" s="9">
+      <c r="B262" s="13">
         <v>22</v>
       </c>
     </row>
@@ -2542,7 +2561,7 @@
       <c r="A263" s="3">
         <v>48488</v>
       </c>
-      <c r="B263" s="9">
+      <c r="B263" s="13">
         <v>21</v>
       </c>
     </row>
@@ -2550,7 +2569,7 @@
       <c r="A264" s="3">
         <v>48519</v>
       </c>
-      <c r="B264" s="9">
+      <c r="B264" s="13">
         <v>20</v>
       </c>
     </row>
@@ -2558,7 +2577,7 @@
       <c r="A265" s="3">
         <v>48549</v>
       </c>
-      <c r="B265" s="9">
+      <c r="B265" s="13">
         <v>22</v>
       </c>
     </row>
@@ -2566,7 +2585,7 @@
       <c r="A266" s="3">
         <v>48580</v>
       </c>
-      <c r="B266" s="9">
+      <c r="B266" s="13">
         <v>16</v>
       </c>
     </row>
@@ -2574,7 +2593,7 @@
       <c r="A267" s="3">
         <v>48611</v>
       </c>
-      <c r="B267" s="9">
+      <c r="B267" s="13">
         <v>19</v>
       </c>
     </row>
@@ -2582,7 +2601,7 @@
       <c r="A268" s="3">
         <v>48639</v>
       </c>
-      <c r="B268" s="9">
+      <c r="B268" s="13">
         <v>22</v>
       </c>
     </row>
@@ -2590,7 +2609,7 @@
       <c r="A269" s="3">
         <v>48670</v>
       </c>
-      <c r="B269" s="9">
+      <c r="B269" s="13">
         <v>21</v>
       </c>
     </row>
@@ -2598,7 +2617,7 @@
       <c r="A270" s="3">
         <v>48700</v>
       </c>
-      <c r="B270" s="9">
+      <c r="B270" s="13">
         <v>18</v>
       </c>
     </row>
@@ -2606,7 +2625,7 @@
       <c r="A271" s="3">
         <v>48731</v>
       </c>
-      <c r="B271" s="9">
+      <c r="B271" s="13">
         <v>21</v>
       </c>
     </row>
@@ -2614,7 +2633,7 @@
       <c r="A272" s="3">
         <v>48761</v>
       </c>
-      <c r="B272" s="9">
+      <c r="B272" s="13">
         <v>21</v>
       </c>
     </row>
@@ -2622,7 +2641,7 @@
       <c r="A273" s="3">
         <v>48792</v>
       </c>
-      <c r="B273" s="9">
+      <c r="B273" s="13">
         <v>23</v>
       </c>
     </row>
@@ -2630,7 +2649,7 @@
       <c r="A274" s="3">
         <v>48823</v>
       </c>
-      <c r="B274" s="9">
+      <c r="B274" s="13">
         <v>22</v>
       </c>
     </row>
@@ -2638,7 +2657,7 @@
       <c r="A275" s="3">
         <v>48853</v>
       </c>
-      <c r="B275" s="9">
+      <c r="B275" s="13">
         <v>21</v>
       </c>
     </row>
@@ -2646,7 +2665,7 @@
       <c r="A276" s="3">
         <v>48884</v>
       </c>
-      <c r="B276" s="9">
+      <c r="B276" s="13">
         <v>21</v>
       </c>
     </row>
@@ -2654,7 +2673,7 @@
       <c r="A277" s="3">
         <v>48914</v>
       </c>
-      <c r="B277" s="9">
+      <c r="B277" s="13">
         <v>22</v>
       </c>
     </row>
